--- a/Data/EC/NIT-9006811606.xlsx
+++ b/Data/EC/NIT-9006811606.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9D68BDD-B70B-423C-BC3C-7204F843C631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C27885C-6A61-462A-92D1-B78C4D213165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E81E088C-A21B-41DF-A353-7C9B041D60B2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3A6E7F6D-9F31-4F50-98F9-D6F6860EC516}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,79 +65,16 @@
     <t>CC</t>
   </si>
   <si>
-    <t>1235045678</t>
-  </si>
-  <si>
-    <t>YULIZA SOFIA DAVID SALINAS</t>
+    <t>1047497356</t>
+  </si>
+  <si>
+    <t>RAUL ENRIQUE QUINTANA LONDOÑO</t>
   </si>
   <si>
     <t>2207</t>
   </si>
   <si>
-    <t>1047497356</t>
-  </si>
-  <si>
-    <t>RAUL ENRIQUE QUINTANA LONDOÑO</t>
-  </si>
-  <si>
     <t>2209</t>
-  </si>
-  <si>
-    <t>1003071880</t>
-  </si>
-  <si>
-    <t>JONATHAN ALVAREZ PEÑA</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -236,22 +173,22 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -451,23 +388,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -495,10 +432,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -551,7 +488,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC6AD3E4-4552-3AFC-2C6B-E1B9F3A31086}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52DF874F-9E8A-0837-AD86-C0C4C264D213}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -902,8 +839,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4CD20AC-4471-4F2D-B00B-C9994D88E004}">
-  <dimension ref="B2:J41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9925DBEE-ED5C-4DB6-9FB7-3AC1B450EA99}">
+  <dimension ref="B2:J23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -927,7 +864,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -972,7 +909,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1004,12 +941,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>761792</v>
+        <v>120000</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1020,17 +957,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C13" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="F13" s="5">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1057,13 +994,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1080,480 +1017,66 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G16" s="18">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="18">
+      <c r="F17" s="24">
         <v>60000</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="24">
         <v>1500000</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B18" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G18" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B19" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G19" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B20" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G20" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B21" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G21" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="26"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B22" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G22" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="B22" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="32"/>
+      <c r="H22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B23" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="16" t="s">
+      <c r="B23" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G23" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B24" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G24" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B25" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="16" t="s">
+      <c r="C23" s="32"/>
+      <c r="H23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G25" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B26" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G26" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B27" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G27" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B28" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G28" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G29" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F30" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G30" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B31" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G31" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B32" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F32" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G32" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F33" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G33" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F34" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G34" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E35" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="F35" s="24">
-        <v>35112</v>
-      </c>
-      <c r="G35" s="24">
-        <v>1000000</v>
-      </c>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="26"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B40" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="32"/>
-      <c r="H40" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B41" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" s="32"/>
-      <c r="H41" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H22:J22"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
